--- a/input_data/admin_data/URY/gpinter_URY_2012.xlsx
+++ b/input_data/admin_data/URY/gpinter_URY_2012.xlsx
@@ -2184,16 +2184,16 @@
         <v>1252.367804948949</v>
       </c>
       <c r="D50">
-        <v>0.30731066686122871</v>
+        <v>0.30733985116007589</v>
       </c>
       <c r="E50">
-        <v>0.69268933313877135</v>
+        <v>0.69266014883992411</v>
       </c>
       <c r="F50">
-        <v>0.43659711075441421</v>
+        <v>0.43662629505326128</v>
       </c>
       <c r="G50">
-        <v>0.2126951699985408</v>
+        <v>0.21266598569969361</v>
       </c>
       <c r="H50">
         <v>0.039427987742594497</v>
@@ -2234,16 +2234,16 @@
         <v>6409.225372920102</v>
       </c>
       <c r="D51">
-        <v>0.39942797104833061</v>
+        <v>0.39939878589773531</v>
       </c>
       <c r="E51">
-        <v>0.60057202895166939</v>
+        <v>0.60060121410226475</v>
       </c>
       <c r="F51">
-        <v>0.56438244221340184</v>
+        <v>0.56429488676161565</v>
       </c>
       <c r="G51">
-        <v>0.30037356992762082</v>
+        <v>0.30046112537940689</v>
       </c>
       <c r="H51">
         <v>0.12797688536072849</v>
@@ -2252,13 +2252,13 @@
         <v>0.0072671024982488997</v>
       </c>
       <c r="J51">
-        <v>0.74931210968315343</v>
+        <v>0.74922794975400142</v>
       </c>
       <c r="K51">
         <v>0.018111978095174799</v>
       </c>
       <c r="L51">
-        <v>0.17428683006678289</v>
+        <v>0.17437098999593481</v>
       </c>
       <c r="M51">
         <v>0.058289082148635298</v>
@@ -2290,10 +2290,10 @@
         <v>0.60825915657376339</v>
       </c>
       <c r="F52">
-        <v>0.55231285568364219</v>
+        <v>0.55237122428133667</v>
       </c>
       <c r="G52">
-        <v>0.29414854808113228</v>
+        <v>0.29409017948343791</v>
       </c>
       <c r="H52">
         <v>0.14682620750036479</v>
@@ -2302,13 +2302,13 @@
         <v>0.0067123887348606</v>
       </c>
       <c r="J52">
-        <v>0.75388662199903711</v>
+        <v>0.75393011231821117</v>
       </c>
       <c r="K52">
         <v>0.0189115135174646</v>
       </c>
       <c r="L52">
-        <v>0.1898881483373045</v>
+        <v>0.1898446580181305</v>
       </c>
       <c r="M52">
         <v>0.037313716155080202</v>
@@ -2434,31 +2434,31 @@
         <v>32978.852965227357</v>
       </c>
       <c r="D55">
-        <v>0.38926017802422302</v>
+        <v>0.38928936232307021</v>
       </c>
       <c r="E55">
-        <v>0.61073982197577703</v>
+        <v>0.61071063767692979</v>
       </c>
       <c r="F55">
         <v>0.47605428279585582</v>
       </c>
       <c r="G55">
-        <v>0.29601634320735443</v>
+        <v>0.29598715890850719</v>
       </c>
       <c r="H55">
-        <v>0.22209251422734569</v>
+        <v>0.2221216985261929</v>
       </c>
       <c r="I55">
         <v>0.0058368597694439996</v>
       </c>
       <c r="J55">
-        <v>0.68372284354452617</v>
+        <v>0.68369064324079598</v>
       </c>
       <c r="K55">
         <v>0.020786503034465199</v>
       </c>
       <c r="L55">
-        <v>0.26753795227219251</v>
+        <v>0.2675701525759227</v>
       </c>
       <c r="M55">
         <v>0.027952701154298001</v>
@@ -2484,31 +2484,31 @@
         <v>39905.45716508737</v>
       </c>
       <c r="D56">
-        <v>0.39360863855245881</v>
+        <v>0.39357945425361163</v>
       </c>
       <c r="E56">
-        <v>0.60639136144754124</v>
+        <v>0.60642054574638848</v>
       </c>
       <c r="F56">
-        <v>0.48337954180650811</v>
+        <v>0.48340872610535529</v>
       </c>
       <c r="G56">
         <v>0.30354589230993723</v>
       </c>
       <c r="H56">
-        <v>0.20700423172333279</v>
+        <v>0.20697504742448561</v>
       </c>
       <c r="I56">
         <v>0.0060703341602218004</v>
       </c>
       <c r="J56">
-        <v>0.70212062948234177</v>
+        <v>0.70214724060667399</v>
       </c>
       <c r="K56">
         <v>0.019641270842504801</v>
       </c>
       <c r="L56">
-        <v>0.25147657591007477</v>
+        <v>0.25144996478574261</v>
       </c>
       <c r="M56">
         <v>0.026761523748105101</v>
@@ -2540,10 +2540,10 @@
         <v>0.62132267102498251</v>
       </c>
       <c r="F57">
-        <v>0.47997898669157141</v>
+        <v>0.47992061639038058</v>
       </c>
       <c r="G57">
-        <v>0.31820569694139622</v>
+        <v>0.31826406724258699</v>
       </c>
       <c r="H57">
         <v>0.19734998832593981</v>
@@ -2584,31 +2584,31 @@
         <v>53651.710963036261</v>
       </c>
       <c r="D58">
-        <v>0.40221800671238872</v>
+        <v>0.40224719101123602</v>
       </c>
       <c r="E58">
-        <v>0.59778199328761128</v>
+        <v>0.59775280898876404</v>
       </c>
       <c r="F58">
-        <v>0.4878447395301328</v>
+        <v>0.48787392382897998</v>
       </c>
       <c r="G58">
-        <v>0.30083175251714578</v>
+        <v>0.30077338391945141</v>
       </c>
       <c r="H58">
-        <v>0.2065080986429301</v>
+        <v>0.20653728294177731</v>
       </c>
       <c r="I58">
         <v>0.0048154093097912999</v>
       </c>
       <c r="J58">
-        <v>0.7222434852559998</v>
+        <v>0.72223576104672116</v>
       </c>
       <c r="K58">
         <v>0.0194779984821985</v>
       </c>
       <c r="L58">
-        <v>0.23618002261303711</v>
+        <v>0.23618774682231569</v>
       </c>
       <c r="M58">
         <v>0.022098493670191201</v>
@@ -2634,31 +2634,31 @@
         <v>60477.473501340653</v>
       </c>
       <c r="D59">
-        <v>0.41432949073398512</v>
+        <v>0.41502991390631838</v>
       </c>
       <c r="E59">
-        <v>0.58567050926601483</v>
+        <v>0.58497008609368162</v>
       </c>
       <c r="F59">
-        <v>0.40356048445936088</v>
+        <v>0.40353130016051358</v>
       </c>
       <c r="G59">
-        <v>0.24538158470742741</v>
+        <v>0.2455275062016635</v>
       </c>
       <c r="H59">
-        <v>0.34714723478768422</v>
+        <v>0.34703049759229537</v>
       </c>
       <c r="I59">
         <v>0.0039106960455275001</v>
       </c>
       <c r="J59">
-        <v>0.59391679958859145</v>
+        <v>0.59392365200850317</v>
       </c>
       <c r="K59">
         <v>0.015664707672358301</v>
       </c>
       <c r="L59">
-        <v>0.37301781252185739</v>
+        <v>0.37301096010194568</v>
       </c>
       <c r="M59">
         <v>0.0174006802228256</v>
@@ -2684,19 +2684,19 @@
         <v>62970</v>
       </c>
       <c r="D60">
-        <v>0.33524982488909638</v>
+        <v>0.33431590007004441</v>
       </c>
       <c r="E60">
-        <v>0.66475017511090351</v>
+        <v>0.66568409992995559</v>
       </c>
       <c r="F60">
-        <v>0.00090473966845670004</v>
+        <v>0.00093392481905210005</v>
       </c>
       <c r="G60">
-        <v>0.0107109502685034</v>
+        <v>0.0107401354190988</v>
       </c>
       <c r="H60">
-        <v>0.98832593976184913</v>
+        <v>0.98826756946065841</v>
       </c>
       <c r="I60">
         <v>5.8370301190800001e-05</v>
@@ -2734,19 +2734,19 @@
         <v>64466.161588902673</v>
       </c>
       <c r="D61">
-        <v>0.41170290383773528</v>
+        <v>0.41181964103312418</v>
       </c>
       <c r="E61">
-        <v>0.58829709616226467</v>
+        <v>0.58818035896687582</v>
       </c>
       <c r="F61">
         <v>0.22098351087115131</v>
       </c>
       <c r="G61">
-        <v>0.20618707135561071</v>
+        <v>0.2062454399533051</v>
       </c>
       <c r="H61">
-        <v>0.57137020283087703</v>
+        <v>0.57131183423318255</v>
       </c>
       <c r="I61">
         <v>0.0014592149423609999</v>
@@ -2784,31 +2784,31 @@
         <v>65780.135092409342</v>
       </c>
       <c r="D62">
-        <v>0.41672260323945709</v>
+        <v>0.41710199912447099</v>
       </c>
       <c r="E62">
-        <v>0.58327739676054291</v>
+        <v>0.5828980008755289</v>
       </c>
       <c r="F62">
-        <v>0.20288924558587479</v>
+        <v>0.20134247774697209</v>
       </c>
       <c r="G62">
-        <v>0.24333868378812201</v>
+        <v>0.2430468407996498</v>
       </c>
       <c r="H62">
-        <v>0.55228367138479495</v>
+        <v>0.55412228221216986</v>
       </c>
       <c r="I62">
         <v>0.0014883992412082</v>
       </c>
       <c r="J62">
-        <v>0.16108596885305429</v>
+        <v>0.1611155625941324</v>
       </c>
       <c r="K62">
         <v>0.0047080001390665</v>
       </c>
       <c r="L62">
-        <v>0.82920164734415602</v>
+        <v>0.82917205360307789</v>
       </c>
       <c r="M62">
         <v>0.0050043836644579004</v>
@@ -2834,31 +2834,31 @@
         <v>67026.972970446383</v>
       </c>
       <c r="D63">
-        <v>0.47831543310763491</v>
+        <v>0.47802358160168112</v>
       </c>
       <c r="E63">
-        <v>0.52168456689236509</v>
+        <v>0.52197641839831888</v>
       </c>
       <c r="F63">
-        <v>0.36236282979220169</v>
+        <v>0.3639096427737567</v>
       </c>
       <c r="G63">
-        <v>0.3299089423301424</v>
+        <v>0.32999649778192858</v>
       </c>
       <c r="H63">
-        <v>0.30626897034788703</v>
+        <v>0.30463460191454589</v>
       </c>
       <c r="I63">
         <v>0.0014592575297689</v>
       </c>
       <c r="J63">
-        <v>0.19479160505975249</v>
+        <v>0.19476256097475381</v>
       </c>
       <c r="K63">
         <v>0.0052362245539471003</v>
       </c>
       <c r="L63">
-        <v>0.79328401700774187</v>
+        <v>0.79331306109274069</v>
       </c>
       <c r="M63">
         <v>0.0066881533882655001</v>
@@ -2934,10 +2934,10 @@
         <v>75435.974640440312</v>
       </c>
       <c r="D65">
-        <v>0.44293010360426088</v>
+        <v>0.44313439369619151</v>
       </c>
       <c r="E65">
-        <v>0.55706989639573912</v>
+        <v>0.55686560630380855</v>
       </c>
       <c r="F65">
         <v>0.38680869692105652</v>
@@ -2952,13 +2952,13 @@
         <v>0.0042025390339996997</v>
       </c>
       <c r="J65">
-        <v>0.57969367493657831</v>
+        <v>0.5796633129801716</v>
       </c>
       <c r="K65">
         <v>0.0148035829851007</v>
       </c>
       <c r="L65">
-        <v>0.38835464979199341</v>
+        <v>0.38838501174840001</v>
       </c>
       <c r="M65">
         <v>0.0171480922929922</v>
@@ -2984,10 +2984,10 @@
         <v>79350.81212355716</v>
       </c>
       <c r="D66">
-        <v>0.51605183282745737</v>
+        <v>0.5158183516226944</v>
       </c>
       <c r="E66">
-        <v>0.48394816717254258</v>
+        <v>0.4841816483773056</v>
       </c>
       <c r="F66">
         <v>0.17651179080084051</v>
@@ -3002,13 +3002,13 @@
         <v>0.0017511090357226001</v>
       </c>
       <c r="J66">
-        <v>0.25642624109752998</v>
+        <v>0.25645510596428339</v>
       </c>
       <c r="K66">
         <v>0.0064479216284336</v>
       </c>
       <c r="L66">
-        <v>0.72793081664987269</v>
+        <v>0.72790195178311923</v>
       </c>
       <c r="M66">
         <v>0.0091950206040889004</v>
@@ -3034,31 +3034,31 @@
         <v>83794.566930997375</v>
       </c>
       <c r="D67">
-        <v>0.47374872318692551</v>
+        <v>0.47377790748577259</v>
       </c>
       <c r="E67">
-        <v>0.52625127681307449</v>
+        <v>0.52622209251422736</v>
       </c>
       <c r="F67">
-        <v>0.35712826499343348</v>
+        <v>0.35715744929228083</v>
       </c>
       <c r="G67">
         <v>0.22594484167517881</v>
       </c>
       <c r="H67">
-        <v>0.41310375018240192</v>
+        <v>0.41307456588355462</v>
       </c>
       <c r="I67">
         <v>0.0038231431489858</v>
       </c>
       <c r="J67">
-        <v>0.53566530054903394</v>
+        <v>0.53569543024122568</v>
       </c>
       <c r="K67">
         <v>0.013508636121076801</v>
       </c>
       <c r="L67">
-        <v>0.43498944016703872</v>
+        <v>0.43495931047484698</v>
       </c>
       <c r="M67">
         <v>0.015836623169902801</v>
@@ -3093,22 +3093,22 @@
         <v>0.3556106814533781</v>
       </c>
       <c r="G68">
-        <v>0.23814387859331679</v>
+        <v>0.2381146942944696</v>
       </c>
       <c r="H68">
-        <v>0.40294761418356922</v>
+        <v>0.40297679848241652</v>
       </c>
       <c r="I68">
         <v>0.0032978257697358999</v>
       </c>
       <c r="J68">
-        <v>0.55678845901554108</v>
+        <v>0.55676012899862304</v>
       </c>
       <c r="K68">
         <v>0.0135001783934212</v>
       </c>
       <c r="L68">
-        <v>0.41532577852478553</v>
+        <v>0.41535410854170363</v>
       </c>
       <c r="M68">
         <v>0.0143855840474435</v>
@@ -3140,10 +3140,10 @@
         <v>0.56382792435208962</v>
       </c>
       <c r="F69">
-        <v>0.33408241886528128</v>
+        <v>0.33405323371468598</v>
       </c>
       <c r="G69">
-        <v>0.2093742703712351</v>
+        <v>0.20940345552183051</v>
       </c>
       <c r="H69">
         <v>0.45385827690870878</v>
@@ -3334,16 +3334,16 @@
         <v>115783.8181063494</v>
       </c>
       <c r="D73">
-        <v>0.49090909090909091</v>
+        <v>0.49093827520793809</v>
       </c>
       <c r="E73">
-        <v>0.50909090909090904</v>
+        <v>0.50906172479206191</v>
       </c>
       <c r="F73">
-        <v>0.38937691521961187</v>
+        <v>0.38940609951845911</v>
       </c>
       <c r="G73">
-        <v>0.23364949657084491</v>
+        <v>0.2336203122719977</v>
       </c>
       <c r="H73">
         <v>0.37440536991098788</v>
@@ -3352,13 +3352,13 @@
         <v>0.0025682182985554002</v>
       </c>
       <c r="J73">
-        <v>0.60113661673691399</v>
+        <v>0.60119640905287464</v>
       </c>
       <c r="K73">
         <v>0.013027776252477899</v>
       </c>
       <c r="L73">
-        <v>0.37103394329274192</v>
+        <v>0.37097415097678133</v>
       </c>
       <c r="M73">
         <v>0.014801663704559299</v>
@@ -3390,10 +3390,10 @@
         <v>0.52216547497446375</v>
       </c>
       <c r="F74">
-        <v>0.3957099080694586</v>
+        <v>0.39565153947176418</v>
       </c>
       <c r="G74">
-        <v>0.2305851451918868</v>
+        <v>0.2306435137895812</v>
       </c>
       <c r="H74">
         <v>0.36991098788851601</v>
@@ -3402,13 +3402,13 @@
         <v>0.0037939588501386002</v>
       </c>
       <c r="J74">
-        <v>0.60677762612769837</v>
+        <v>0.60672063750932381</v>
       </c>
       <c r="K74">
         <v>0.0140098892578164</v>
       </c>
       <c r="L74">
-        <v>0.36390556928021128</v>
+        <v>0.36396255789858589</v>
       </c>
       <c r="M74">
         <v>0.0153069153359986</v>
@@ -3434,19 +3434,19 @@
         <v>127662.9322012991</v>
       </c>
       <c r="D75">
-        <v>0.4836855008171842</v>
+        <v>0.48365631566658879</v>
       </c>
       <c r="E75">
-        <v>0.5163144991828158</v>
+        <v>0.51634368433341116</v>
       </c>
       <c r="F75">
-        <v>0.41679313565258003</v>
+        <v>0.41682232080317527</v>
       </c>
       <c r="G75">
-        <v>0.23491127714219009</v>
+        <v>0.2348529068409993</v>
       </c>
       <c r="H75">
-        <v>0.34558136819985991</v>
+        <v>0.34561055335045532</v>
       </c>
       <c r="I75">
         <v>0.0027142190053701001</v>
@@ -3493,22 +3493,22 @@
         <v>0.41071063767692978</v>
       </c>
       <c r="G76">
-        <v>0.2328031519042755</v>
+        <v>0.23289070480081719</v>
       </c>
       <c r="H76">
-        <v>0.35348022763753101</v>
+        <v>0.35339267474098929</v>
       </c>
       <c r="I76">
         <v>0.0030059827812636999</v>
       </c>
       <c r="J76">
-        <v>0.62412197726221597</v>
+        <v>0.62415192163984501</v>
       </c>
       <c r="K76">
         <v>0.015693120468741498</v>
       </c>
       <c r="L76">
-        <v>0.34338538304652882</v>
+        <v>0.34335543866889973</v>
       </c>
       <c r="M76">
         <v>0.016799519252264802</v>
@@ -3534,31 +3534,31 @@
         <v>141753.01027515321</v>
       </c>
       <c r="D77">
-        <v>0.48647307748431351</v>
+        <v>0.48650226178316058</v>
       </c>
       <c r="E77">
-        <v>0.51352692251568655</v>
+        <v>0.51349773821683931</v>
       </c>
       <c r="F77">
-        <v>0.47147234787684228</v>
+        <v>0.47144316357799498</v>
       </c>
       <c r="G77">
-        <v>0.26440974755581498</v>
+        <v>0.26438056325696768</v>
       </c>
       <c r="H77">
-        <v>0.26134539617685693</v>
+        <v>0.26140376477455129</v>
       </c>
       <c r="I77">
         <v>0.0027725083904859</v>
       </c>
       <c r="J77">
-        <v>0.71887221604438889</v>
+        <v>0.7188438365377916</v>
       </c>
       <c r="K77">
         <v>0.0174002596293042</v>
       </c>
       <c r="L77">
-        <v>0.24478287738377391</v>
+        <v>0.2448112568903712</v>
       </c>
       <c r="M77">
         <v>0.018944646876036898</v>
@@ -3584,16 +3584,16 @@
         <v>149900.6232881085</v>
       </c>
       <c r="D78">
-        <v>0.53116974083586266</v>
+        <v>0.5311405556852673</v>
       </c>
       <c r="E78">
-        <v>0.46883025916413729</v>
+        <v>0.4688594443147327</v>
       </c>
       <c r="F78">
-        <v>0.44469413962176052</v>
+        <v>0.44472332477235582</v>
       </c>
       <c r="G78">
-        <v>0.25396918048097128</v>
+        <v>0.25393999533037592</v>
       </c>
       <c r="H78">
         <v>0.29800957272939532</v>
@@ -3740,10 +3740,10 @@
         <v>0.47942446883025908</v>
       </c>
       <c r="F81">
-        <v>0.42800023348120481</v>
+        <v>0.42797104833060939</v>
       </c>
       <c r="G81">
-        <v>0.2754202661685734</v>
+        <v>0.27544945131916881</v>
       </c>
       <c r="H81">
         <v>0.29316483773056268</v>
@@ -3790,10 +3790,10 @@
         <v>0.48066540201371671</v>
       </c>
       <c r="F82">
-        <v>0.4232598861812345</v>
+        <v>0.42328907048008169</v>
       </c>
       <c r="G82">
-        <v>0.27695899606011959</v>
+        <v>0.27692981176127252</v>
       </c>
       <c r="H82">
         <v>0.29680431927622941</v>
